--- a/PROGRESSO.xlsx
+++ b/PROGRESSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMANDO\_DataStudy\________PORTFOLIO________\ONGOING\LEET_CODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA78986-B9B3-46A1-BFBA-F6B02B07CADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513B44AA-B31D-4EEE-9EE4-7C6D61C55C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>EASY</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/remove-element/?envType=study-plan-v2&amp;envId=top-interview-150</t>
+  </si>
+  <si>
+    <t>26 - Remove Duplicates from Sorted Arrays</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-array/description/?envType=study-plan-v2&amp;envId=top-interview-150</t>
   </si>
 </sst>
 </file>
@@ -403,16 +409,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="95.953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="110.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.75">
@@ -448,8 +454,20 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PROGRESSO.xlsx
+++ b/PROGRESSO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMANDO\_DataStudy\________PORTFOLIO________\ONGOING\LEET_CODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513B44AA-B31D-4EEE-9EE4-7C6D61C55C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835A5AF0-382A-4769-B9A3-C551B877D5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>EASY</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/remove-duplicates-from-sorted-array/description/?envType=study-plan-v2&amp;envId=top-interview-150</t>
+  </si>
+  <si>
+    <t>80 - Remove Duplicates from Sorted Arrays 2</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-array-ii/description/?envType=study-plan-v2&amp;envId=top-interview-150</t>
   </si>
 </sst>
 </file>
@@ -81,7 +90,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,6 +100,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,11 +138,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -409,16 +425,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="110.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.453125" customWidth="1"/>
+    <col min="4" max="4" width="111.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.75">
@@ -466,8 +482,20 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
+      <c r="C4" s="4"/>
       <c r="D4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
